--- a/data/trans_dic/P1803_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1803_2016_2023-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05044727594266702</v>
+        <v>0.05203531704828893</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09592371343763977</v>
+        <v>0.09700481140362648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04855609613435181</v>
+        <v>0.04925940452596574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1374018868692364</v>
+        <v>0.1358076208921079</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05608028496605851</v>
+        <v>0.05806876580079237</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1231054892357043</v>
+        <v>0.1237016872183197</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.10320865977995</v>
+        <v>0.105220696581962</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1598443908263055</v>
+        <v>0.1593350563595891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1074071055367908</v>
+        <v>0.1085150493681329</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1949036780344093</v>
+        <v>0.1942403039417162</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09440103262606218</v>
+        <v>0.09792265361585577</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1665016039401147</v>
+        <v>0.1673981830724662</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.03723397948407537</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07775539267804076</v>
+        <v>0.07775539267804074</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.08695831228638164</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02070895880410716</v>
+        <v>0.02135321486475543</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05530170832845265</v>
+        <v>0.05599500943033058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06018209376054424</v>
+        <v>0.05969799760157059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1227237376812498</v>
+        <v>0.1223825533933824</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04608069086411787</v>
+        <v>0.0457734194112626</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09364864828361612</v>
+        <v>0.09273111620062342</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06325147797314606</v>
+        <v>0.0663588230816716</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1076366808031735</v>
+        <v>0.1087970695447067</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1261118757208294</v>
+        <v>0.1223087002944789</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1820183240626647</v>
+        <v>0.1799070019746045</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08202532982396379</v>
+        <v>0.08396710373214976</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1309196120988988</v>
+        <v>0.1307187156955016</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.04638926473026803</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1017565696001968</v>
+        <v>0.1017565696001967</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.06858174858761491</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09063923814219538</v>
+        <v>0.09063923814219536</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05174752359667908</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02963034140711254</v>
+        <v>0.02940162048108835</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07413632737535013</v>
+        <v>0.07664412298113286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03598247905619782</v>
+        <v>0.03188343913915371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05958465203989335</v>
+        <v>0.06087994534214124</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03600101519742067</v>
+        <v>0.03712072723661153</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07723618139895433</v>
+        <v>0.07802649302204182</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06798332023733449</v>
+        <v>0.06678664691145957</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1333600556643161</v>
+        <v>0.1334466962685771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1238845512542325</v>
+        <v>0.1138611987524173</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1266555462200031</v>
+        <v>0.1266748796024705</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0703296205780983</v>
+        <v>0.07104400898301903</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1264298430188608</v>
+        <v>0.1241888072335497</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.05234540282522263</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.08187614970094767</v>
+        <v>0.08187614970094768</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0330619080503207</v>
+        <v>0.03389166099869686</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05317636356445511</v>
+        <v>0.05239191699381843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04605643198365468</v>
+        <v>0.04648917416908034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08520225632766221</v>
+        <v>0.08404861215370818</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04219987105665535</v>
+        <v>0.04286428054646388</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07089149090573119</v>
+        <v>0.07052232618414672</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05996554042264098</v>
+        <v>0.06002296016447402</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08669279638758581</v>
+        <v>0.08636491688522958</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07988698164009948</v>
+        <v>0.08039246267532039</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1215501929795002</v>
+        <v>0.1192811483232873</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06325869049334236</v>
+        <v>0.06438974540037408</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09443099182252737</v>
+        <v>0.09454013636147029</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.0347487233514308</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05848889805436931</v>
+        <v>0.05848889805436929</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.043065404497004</v>
@@ -952,7 +952,7 @@
         <v>0.03926672694730699</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.07357758888953263</v>
+        <v>0.07357758888953261</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02189256408348446</v>
+        <v>0.02208952578287294</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0394852368601862</v>
+        <v>0.04068998736567695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03010559786787134</v>
+        <v>0.02922639127182347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06962215313124541</v>
+        <v>0.06895047600907768</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02941931980592422</v>
+        <v>0.02976339548969417</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06219084053136268</v>
+        <v>0.06110317784370357</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05194380260100463</v>
+        <v>0.05100827140566883</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08346047004258375</v>
+        <v>0.08348536151247865</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0618965522276029</v>
+        <v>0.06092616848169193</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0998381538877737</v>
+        <v>0.1014375548351675</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.051327271489429</v>
+        <v>0.05105889615439607</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08749586851473151</v>
+        <v>0.08728986769346113</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>0.0389043747866172</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.05529823342207876</v>
+        <v>0.05529823342207878</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01801858226658511</v>
+        <v>0.01633830178383812</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01770122890812224</v>
+        <v>0.01681579436054216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02755556138412769</v>
+        <v>0.02859779256392651</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04294260439967477</v>
+        <v>0.04240686667175625</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02963457476345268</v>
+        <v>0.02930815838562442</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0415360837654242</v>
+        <v>0.04180383379353199</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06827829907498548</v>
+        <v>0.06328383974471362</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1204716160687577</v>
+        <v>0.1232126828916862</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0529461553491274</v>
+        <v>0.05388052515698475</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07462263593475475</v>
+        <v>0.07223059757051611</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05252271445883462</v>
+        <v>0.05126753178746644</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07534749944119096</v>
+        <v>0.07603760463827706</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.05056003105572327</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.09074767541596772</v>
+        <v>0.09074767541596773</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03830769845462773</v>
+        <v>0.03725773832907207</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07079333919819175</v>
+        <v>0.07078737030933428</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04802696698571112</v>
+        <v>0.04783118174767956</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09227586762589</v>
+        <v>0.09226824077231875</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04534623030536943</v>
+        <v>0.04549328767839032</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08411518977993575</v>
+        <v>0.08418618829260167</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05302781226819699</v>
+        <v>0.05278924874624531</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09154738797159866</v>
+        <v>0.09164694439584285</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0638966413576879</v>
+        <v>0.06402921704638341</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1095854705088056</v>
+        <v>0.1099019332769015</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05634166719525064</v>
+        <v>0.05631182424880911</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09757336618305038</v>
+        <v>0.0977552925745767</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21647</v>
+        <v>22328</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>52817</v>
+        <v>53413</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16852</v>
+        <v>17096</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>67109</v>
+        <v>66330</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43527</v>
+        <v>45070</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>127910</v>
+        <v>128530</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44286</v>
+        <v>45149</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88013</v>
+        <v>87733</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37276</v>
+        <v>37661</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>95193</v>
+        <v>94869</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>73269</v>
+        <v>76002</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>173000</v>
+        <v>173932</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7812</v>
+        <v>8055</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26722</v>
+        <v>27057</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22404</v>
+        <v>22224</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>51930</v>
+        <v>51785</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>34537</v>
+        <v>34307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>84879</v>
+        <v>84047</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23860</v>
+        <v>25032</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52011</v>
+        <v>52572</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46948</v>
+        <v>45532</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>77020</v>
+        <v>76126</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>61478</v>
+        <v>62933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>118660</v>
+        <v>118478</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15464</v>
+        <v>15345</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34964</v>
+        <v>36146</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5978</v>
+        <v>5297</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11172</v>
+        <v>11415</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24770</v>
+        <v>25540</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>50907</v>
+        <v>51428</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35481</v>
+        <v>34857</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>62894</v>
+        <v>62935</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20580</v>
+        <v>18915</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23748</v>
+        <v>23751</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48389</v>
+        <v>48881</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>83331</v>
+        <v>81854</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38009</v>
+        <v>38963</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>60187</v>
+        <v>59299</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38037</v>
+        <v>38394</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>73326</v>
+        <v>72333</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>83366</v>
+        <v>84679</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>141248</v>
+        <v>140513</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68939</v>
+        <v>69005</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98123</v>
+        <v>97752</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65977</v>
+        <v>66394</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>104608</v>
+        <v>102655</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>124968</v>
+        <v>127203</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>188150</v>
+        <v>188367</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13589</v>
+        <v>13711</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>22426</v>
+        <v>23110</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22225</v>
+        <v>21576</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>57846</v>
+        <v>57288</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>39979</v>
+        <v>40447</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>86993</v>
+        <v>85472</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32242</v>
+        <v>31661</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47403</v>
+        <v>47417</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45695</v>
+        <v>44978</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>82951</v>
+        <v>84279</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>69751</v>
+        <v>69386</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>122390</v>
+        <v>122102</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5174</v>
+        <v>4691</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4199</v>
+        <v>3989</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>29816</v>
+        <v>30944</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>36226</v>
+        <v>35774</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>40575</v>
+        <v>40128</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>44893</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19606</v>
+        <v>18172</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>28579</v>
+        <v>29229</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>57289</v>
+        <v>58300</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62951</v>
+        <v>60933</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>71913</v>
+        <v>70194</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>81437</v>
+        <v>82183</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>129699</v>
+        <v>126144</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>243704</v>
+        <v>243684</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>169612</v>
+        <v>168920</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>335341</v>
+        <v>335313</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>313674</v>
+        <v>314692</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>595249</v>
+        <v>595751</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>179537</v>
+        <v>178730</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>315150</v>
+        <v>315492</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>225657</v>
+        <v>226125</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>398246</v>
+        <v>399396</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>389733</v>
+        <v>389527</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>690487</v>
+        <v>691774</v>
       </c>
     </row>
     <row r="32">
